--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value323.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value323.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7036553784006487</v>
+        <v>1.219557642936707</v>
       </c>
       <c r="B1">
-        <v>1.052655367477642</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.315809713255371</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>4.482512687295729</v>
+        <v>1.565926909446716</v>
       </c>
       <c r="E1">
-        <v>1.438190142836289</v>
+        <v>1.08345091342926</v>
       </c>
     </row>
   </sheetData>
